--- a/new_game/Book1.xlsx
+++ b/new_game/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\wifiselectionModel\new_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC6826-EA9F-4FE5-B6C8-F710BAEAE971}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0416F5-491A-42B7-8FDA-1E75012F6A53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4089FC16-ACD5-41C2-98B6-3128B1314D14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4089FC16-ACD5-41C2-98B6-3128B1314D14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="compareTL&amp;alpha" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Pbest[without game]</t>
   </si>
@@ -53,12 +54,69 @@
   <si>
     <t>Percent difference</t>
   </si>
+  <si>
+    <t>K-RRT(5)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(2,2,8)</t>
+  </si>
+  <si>
+    <t>⍺</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(2,2,10)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(2,2,15)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(2,2,30)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(3,2,8)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(3,2,10)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(3,2,15)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(3,2,30)</t>
+  </si>
+  <si>
+    <t>N=2</t>
+  </si>
+  <si>
+    <t>N=3</t>
+  </si>
+  <si>
+    <t>N=5</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(5,2,8)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(5,2,10)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(5,2,15)</t>
+  </si>
+  <si>
+    <t>K1K2-RRT(5,2,30)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +132,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,16 +182,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2055,6 +2190,3209 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Compare TL between K-RRT Vs K1K2-RRT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K-RRT(5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.8524000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7636799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2741100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80376499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57894900000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(2,2,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.06657964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3247006299999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.04924968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.99283502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.47563307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(2,2,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.054167830000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5569275300000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6905685799999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.42394811</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.80533839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(2,2,15)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.174962229999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.68871714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3042060099999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.50845538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6141416199999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(2,2,30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33.344147360000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.141143410000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.154583560000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7828820199999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.08327799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(3,2,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>6.6617045800000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.01046557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9396997199999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.43225647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(3,2,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>7.8893974900000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.62052197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3570139299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.74442119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(3,2,15)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>10.9297641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1883819000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.40348411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5217412600000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(3,2,30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>20.05353672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8371899200000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5411769800000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8885323500000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(5,2,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>3.1994024099999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.96147158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4207199800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(5,2,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>3.78763776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3626223199999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.72047584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(5,2,15)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>5.29949271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3645349900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.47633357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(5,2,30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$O$4:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>9.8525161200000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4185370099999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7627742499999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-65DA-4F13-AAE6-36B1263717B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="944763344"/>
+        <c:axId val="944759080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="944763344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>M</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="944759080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="944759080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t> Latency(Tl)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="944763344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compare</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Segoe UI Symbol" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Segoe UI Symbol" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>⍺ between K-RRT Vs K1K2-RRT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K-RRT(5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$C$13:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28510000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(2,2,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.90980000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27660000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(2,2,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.93159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74470000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27589999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(2,2,15)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.95920000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50449999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(2,2,30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$G$13:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31640000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(3,2,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.77159999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(3,2,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(3,2,15)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$J$13:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.83840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34429999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(3,2,30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$K$13:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.91379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38009999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(5,2,8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$L$13:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.53990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(5,2,10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$M$13:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.56040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35160000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(5,2,15)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$N$13:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.61780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39460000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compareTL&amp;alpha'!$O$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1K2-RRT(5,2,30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compareTL&amp;alpha'!$O$13:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>0.71240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55789999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45829999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F615-4AFB-A115-A214FBE2F65B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="951516312"/>
+        <c:axId val="951516968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="951516312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951516968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="951516968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951516312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2175,6 +5513,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3680,6 +7098,1048 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3789,6 +8249,599 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1004762" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC4C4D8-D5A9-4D4D-A43F-30E6DD88F4A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="624840" y="213360"/>
+              <a:ext cx="1004762" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐾</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑅𝑅𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐾</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC4C4D8-D5A9-4D4D-A43F-30E6DD88F4A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="624840" y="213360"/>
+              <a:ext cx="1004762" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾−𝑅𝑅𝑇(𝐾)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1782219" cy="219163"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109935C5-3D18-4BF6-A9DE-D0E7419A8E2F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1661160" y="205740"/>
+              <a:ext cx="1782219" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑅𝑅𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>,</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>,</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109935C5-3D18-4BF6-A9DE-D0E7419A8E2F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1661160" y="205740"/>
+              <a:ext cx="1782219" cy="219163"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾_1 𝐾_2−𝑅𝑅𝑇(𝑁,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐾_1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C67C874-40BC-4F98-B7B2-579BAD903E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522A055A-C828-41EB-82C6-DC6C3EEFA44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4096,7 +9149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A041C16-E8BE-492D-AE9C-A041B8944B3C}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
@@ -4374,4 +9427,662 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7363C0FF-D712-42A0-9525-76DEBC839D2C}">
+  <dimension ref="B1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4.8524000000000003</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11.06657964</v>
+      </c>
+      <c r="E4" s="9">
+        <v>13.054167830000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>18.174962229999998</v>
+      </c>
+      <c r="G4" s="9">
+        <v>33.344147360000001</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2.7636799999999999</v>
+      </c>
+      <c r="D5" s="12">
+        <v>6.3247006299999997</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7.5569275300000003</v>
+      </c>
+      <c r="F5" s="12">
+        <v>10.68871714</v>
+      </c>
+      <c r="G5" s="12">
+        <v>20.141143410000002</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6.6617045800000003</v>
+      </c>
+      <c r="I5" s="12">
+        <v>7.8893974900000003</v>
+      </c>
+      <c r="J5" s="12">
+        <v>10.9297641</v>
+      </c>
+      <c r="K5" s="12">
+        <v>20.05353672</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.2741100000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.04924968</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.6905685799999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5.3042060099999997</v>
+      </c>
+      <c r="G6" s="9">
+        <v>10.154583560000001</v>
+      </c>
+      <c r="H6" s="9">
+        <v>3.01046557</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3.62052197</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5.1883819000000004</v>
+      </c>
+      <c r="K6" s="9">
+        <v>9.8371899200000001</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3.1994024099999998</v>
+      </c>
+      <c r="M6" s="9">
+        <v>3.78763776</v>
+      </c>
+      <c r="N6" s="9">
+        <v>5.29949271</v>
+      </c>
+      <c r="O6" s="9">
+        <v>9.8525161200000007</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.80376499999999995</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.99283502</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.42394811</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3.50845538</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6.7828820199999997</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1.9396997199999999</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2.3570139299999999</v>
+      </c>
+      <c r="J7" s="12">
+        <v>3.40348411</v>
+      </c>
+      <c r="K7">
+        <v>6.5411769800000004</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1.96147158</v>
+      </c>
+      <c r="M7" s="12">
+        <v>2.3626223199999998</v>
+      </c>
+      <c r="N7" s="12">
+        <v>3.3645349900000001</v>
+      </c>
+      <c r="O7">
+        <v>6.4185370099999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.57894900000000005</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.47563307</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.80533839</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.6141416199999998</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5.08327799</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.43225647</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1.74442119</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2.5217412600000002</v>
+      </c>
+      <c r="K8" s="9">
+        <v>4.8885323500000002</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1.4207199800000001</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1.72047584</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2.47633357</v>
+      </c>
+      <c r="O8" s="9">
+        <v>4.7627742499999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.72019999999999995</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.81459999999999999</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.57089999999999996</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.62809999999999999</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.71240000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.3962</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.4088</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="O16">
+        <v>0.55789999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.27589999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.2974</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.3105</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.3145</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.34429999999999999</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.3342</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.45829999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I32" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="7">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L11:O11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>